--- a/fortunella/hr/Fortunella HR .xlsx
+++ b/fortunella/hr/Fortunella HR .xlsx
@@ -256,7 +256,7 @@
     <t>Svakoga dana se uzimaju</t>
   </si>
   <si>
-    <t>po 15 kapi  puta na dan(u svako piće)</t>
+    <t>po 15 kapi 6 puta na dan(u svako piće)</t>
   </si>
   <si>
     <t>Za postizanje maksimalnog reziltata neophodno je strogo</t>
@@ -331,7 +331,7 @@
     <t>Dostava</t>
   </si>
   <si>
-    <t>Narudžba se dostavlja u toku 3-7 dana</t>
+    <t>Narudžba se dostavlja u toku 2 dana</t>
   </si>
   <si>
     <t>Plaćanje</t>
